--- a/data/Crop Rotation Sample Template - Botanical Family test.xlsx
+++ b/data/Crop Rotation Sample Template - Botanical Family test.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,7 +908,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +954,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X24" sqref="X24:X37"/>
+      <selection pane="bottomRight" activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,7 +2181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2230,10 +2230,10 @@
         <v>120</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -2282,10 +2282,10 @@
         <v>120</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
@@ -2334,10 +2334,10 @@
         <v>130</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>130</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2919,7 +2919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>120</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.3">

--- a/data/Crop Rotation Sample Template - Botanical Family test.xlsx
+++ b/data/Crop Rotation Sample Template - Botanical Family test.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Demand" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Crops!$A$2:$X$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Crops!$A$2:$X$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="125">
   <si>
     <t>Family</t>
   </si>
@@ -389,6 +389,21 @@
   </si>
   <si>
     <t>Row A</t>
+  </si>
+  <si>
+    <t>Daikon radish - 1</t>
+  </si>
+  <si>
+    <t>Daikon radish - 2</t>
+  </si>
+  <si>
+    <t>Daikon radish - 3</t>
+  </si>
+  <si>
+    <t>Clover, Red - 1</t>
+  </si>
+  <si>
+    <t>Clover, Red - 2</t>
   </si>
 </sst>
 </file>
@@ -412,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +503,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,7 +519,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -776,7 +862,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +966,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -948,13 +1034,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X47" sqref="X47"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,20 +1080,20 @@
       <c r="H1" s="11"/>
       <c r="I1" s="13"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
     </row>
@@ -1286,7 +1372,7 @@
       <c r="W6" s="5">
         <v>70</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1340,7 +1426,7 @@
       <c r="W7" s="5">
         <v>80</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1503,7 +1589,7 @@
     </row>
     <row r="11" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -1546,7 +1632,7 @@
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="5">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>18</v>
@@ -1554,264 +1640,256 @@
     </row>
     <row r="12" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="9"/>
       <c r="W12" s="5">
-        <v>120</v>
-      </c>
-      <c r="X12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3">
-        <v>18</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="9"/>
       <c r="W13" s="5">
-        <v>100</v>
-      </c>
-      <c r="X13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3">
-        <v>18</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="5">
-        <v>100</v>
-      </c>
-      <c r="X14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
       <c r="W15" s="5">
-        <v>90</v>
-      </c>
-      <c r="X15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="5">
         <v>90</v>
       </c>
-      <c r="X16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1820,52 +1898,47 @@
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3">
-        <v>24</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="5">
         <v>120</v>
       </c>
-      <c r="X17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
@@ -1874,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -1889,131 +1962,133 @@
         <v>18</v>
       </c>
       <c r="I18" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J18" s="5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3">
+        <v>18</v>
+      </c>
       <c r="J19" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="X19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="5">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="X20" s="6" t="s">
         <v>18</v>
@@ -2021,194 +2096,188 @@
     </row>
     <row r="21" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3">
-        <v>12</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="5">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="X21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J22" s="5">
         <v>0.7</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="5">
         <v>120</v>
       </c>
-      <c r="X22" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3">
+        <v>24</v>
+      </c>
       <c r="J23" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="5">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="X23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -2229,38 +2298,38 @@
       <c r="W24" s="5">
         <v>120</v>
       </c>
-      <c r="X24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="5" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -2281,38 +2350,40 @@
       <c r="W25" s="5">
         <v>120</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12</v>
+      </c>
       <c r="J26" s="5">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -2331,40 +2402,42 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="5">
-        <v>130</v>
-      </c>
-      <c r="X26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X26" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3">
+        <v>12</v>
+      </c>
       <c r="J27" s="5">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -2383,51 +2456,53 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="5">
-        <v>130</v>
-      </c>
-      <c r="X27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="M28" s="9"/>
       <c r="N28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
@@ -2435,90 +2510,93 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="5">
-        <v>130</v>
-      </c>
-      <c r="X28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="X28" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="14"/>
       <c r="J29" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
-      <c r="R29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="5">
-        <v>130</v>
-      </c>
-      <c r="X29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X29" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="3"/>
+      <c r="J30" s="5">
+        <v>1.5</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -2526,54 +2604,50 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="R30" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="S30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="X30" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="3">
-        <v>24</v>
-      </c>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="5">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2583,9 +2657,7 @@
       <c r="N31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
@@ -2594,27 +2666,27 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="5">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="X31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>75</v>
+    <row r="32" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>12</v>
@@ -2625,22 +2697,23 @@
       <c r="H32" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="5">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
+      <c r="R32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -2651,21 +2724,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
+    <row r="33" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>12</v>
@@ -2676,19 +2749,22 @@
       <c r="H33" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="M33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -2700,131 +2776,127 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>67</v>
+    <row r="34" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
+      <c r="R34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="5">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="X34" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>68</v>
+    <row r="35" spans="1:24" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="3">
-        <v>24</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1.2</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="S35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="V35" s="9"/>
       <c r="W35" s="5">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>69</v>
+      <c r="D36" t="s">
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>18</v>
@@ -2836,7 +2908,7 @@
         <v>24</v>
       </c>
       <c r="J36" s="5">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2857,30 +2929,30 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>18</v>
@@ -2888,23 +2960,18 @@
       <c r="H37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="3">
-        <v>24</v>
-      </c>
       <c r="J37" s="5">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="L37" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="M37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -2913,30 +2980,30 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="5">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>18</v>
@@ -2944,26 +3011,19 @@
       <c r="H38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="3">
-        <v>24</v>
-      </c>
       <c r="J38" s="5">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
+      <c r="R38" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -2977,48 +3037,48 @@
     </row>
     <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="5">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="X39" s="9" t="s">
         <v>18</v>
@@ -3026,70 +3086,73 @@
     </row>
     <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3">
+        <v>12</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1.2</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="N40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U40" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="5">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="X40" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>18</v>
@@ -3100,108 +3163,128 @@
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I41" s="3">
+        <v>12</v>
+      </c>
       <c r="J41" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="5">
         <v>60</v>
       </c>
       <c r="X41" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="5">
         <v>80</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W42" s="5">
-        <v>90</v>
-      </c>
       <c r="X42" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J43" s="5">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>12</v>
@@ -3209,31 +3292,32 @@
       <c r="O43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="5">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>85</v>
+      <c r="A44" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -3247,26 +3331,25 @@
       <c r="H44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="3">
-        <v>12</v>
-      </c>
       <c r="J44" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="5">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X44" s="9" t="s">
         <v>18</v>
@@ -3274,98 +3357,346 @@
     </row>
     <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V45" s="9"/>
+      <c r="W45" s="5">
+        <v>80</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W46" s="5">
+        <v>60</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W47" s="5">
+        <v>90</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W48" s="5">
+        <v>120</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W49" s="5">
+        <v>120</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="5">
         <v>2</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W45" s="5">
+      <c r="N50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W50" s="5">
         <v>65</v>
       </c>
-      <c r="X45" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="X50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="5">
         <v>2</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="5">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="5">
         <v>65</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="X51" s="9" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X46">
+  <autoFilter ref="A2:X51">
     <filterColumn colId="23">
       <filters>
         <filter val="Y"/>
@@ -3375,8 +3706,33 @@
   <mergeCells count="1">
     <mergeCell ref="K1:V1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:X46">
-    <cfRule type="expression" dxfId="0" priority="9">
+  <conditionalFormatting sqref="A3:X10 A18:X51 A13:W13 A17:W17">
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:W14">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:W15">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:W16">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:W12">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:X11 X12:X17">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3387,15 +3743,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="8" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="8"/>
   </cols>
@@ -3409,54 +3765,101 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>69</v>
+      <c r="A2" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="8">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>86</v>
+      <c r="A3" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="8">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>83</v>
+      <c r="A4" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>68</v>
+      <c r="A5" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>52</v>
+      <c r="A6" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B6" s="8">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>61</v>
+      <c r="A7" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="8">
-        <v>10</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Crop Rotation Sample Template - Botanical Family test.xlsx
+++ b/data/Crop Rotation Sample Template - Botanical Family test.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,7 +966,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3706,7 +3706,7 @@
   <mergeCells count="1">
     <mergeCell ref="K1:V1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:X10 A18:X51 A13:W13 A17:W17">
+  <conditionalFormatting sqref="A3:X10 A13:W13 A17:W17 A18:X51">
     <cfRule type="expression" dxfId="8" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
